--- a/structure-data_sample-excel/Data Warehouse.xlsx
+++ b/structure-data_sample-excel/Data Warehouse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nhom9_DW\structure_db_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace-Python\Data-Warehouse\structure-data_sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A294755-C6AF-432F-A6DD-F34C923407E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E5B70-BECA-4121-8333-4D6F56AD032D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59B2C3CB-7028-4F48-80D1-84E5AE089023}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{59B2C3CB-7028-4F48-80D1-84E5AE089023}"/>
   </bookViews>
   <sheets>
     <sheet name="dim_products" sheetId="1" r:id="rId1"/>
@@ -666,10 +666,10 @@
     <t>Lần cuối dữ liệu được cập nhật</t>
   </si>
   <si>
-    <t>dw.dim_products</t>
-  </si>
-  <si>
     <t>Data sample</t>
+  </si>
+  <si>
+    <t>dim_products</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2917,7 @@
   <dimension ref="A5:AV71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2936,7 +2936,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
     <row r="60" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>201</v>
